--- a/accountFiles/minionAccountFiles/sN=6,vMN=1.xlsx
+++ b/accountFiles/minionAccountFiles/sN=6,vMN=1.xlsx
@@ -15,9 +15,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="519">
   <si>
     <t>8-2</t>
+  </si>
+  <si>
+    <t>Done. 1: ('Adrian', 'Beltre', 'tex'), 2: ('Ian', 'Kinsler', 'det')</t>
+  </si>
+  <si>
+    <t>Done. 1: ('Adrian', 'Beltre', 'tex'), 2: ()</t>
+  </si>
+  <si>
+    <t>Done. 1: ('Alex', 'Rios', 'tex'), 2: ()</t>
+  </si>
+  <si>
+    <t>Done. 1: ('Denard', 'Span', 'wsh'), 2: ()</t>
+  </si>
+  <si>
+    <t>Done. 1: ('Giancarlo', 'Stanton', 'mia'), 2: ()</t>
+  </si>
+  <si>
+    <t>Done. 1: ('Jonathan', 'Lucroy', 'mil'), 2: ('Alex', 'Rios', 'tex')</t>
+  </si>
+  <si>
+    <t>Done. 1: ('Jose', 'Abreu', 'cws'), 2: ('Michael', 'Brantley', 'cle')</t>
+  </si>
+  <si>
+    <t>Done. 1: ('Kurt', 'Suzuki', 'min'), 2: ()</t>
+  </si>
+  <si>
+    <t>Done. 1: ('Michael', 'Brantley', 'cle'), 2: ('Giancarlo', 'Stanton', 'mia')</t>
+  </si>
+  <si>
+    <t>Done. 1: ('Ryan', 'Braun', 'mil'), 2: ('Giancarlo', 'Stanton', 'mia')</t>
   </si>
   <si>
     <t>Email</t>
@@ -1921,22 +1951,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c s="1" r="A1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c s="1" r="B1" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c s="1" r="C1" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c s="1" r="D1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c s="1" r="E1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c s="1" r="F1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c s="1" r="G1" t="s">
         <v>0</v>
@@ -1947,19 +1977,22 @@
         <v>1000</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E2" t="n">
         <v>6</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1967,19 +2000,22 @@
         <v>1001</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E3" t="n">
         <v>6</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1987,18 +2023,21 @@
         <v>1002</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E4" t="n">
         <v>6</v>
       </c>
       <c r="F4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
         <v>1</v>
       </c>
     </row>
@@ -2007,19 +2046,22 @@
         <v>1003</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E5" t="n">
         <v>6</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2027,19 +2069,22 @@
         <v>1004</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E6" t="n">
         <v>6</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2047,19 +2092,22 @@
         <v>1005</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D7" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E7" t="n">
         <v>6</v>
       </c>
       <c r="F7" t="n">
         <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2067,19 +2115,22 @@
         <v>1006</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" t="n">
+        <v>6</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
         <v>7</v>
-      </c>
-      <c r="E8" t="n">
-        <v>6</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -2087,19 +2138,22 @@
         <v>1007</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D9" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E9" t="n">
         <v>6</v>
       </c>
       <c r="F9" t="n">
         <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -2107,19 +2161,22 @@
         <v>1008</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D10" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E10" t="n">
         <v>6</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -2127,19 +2184,22 @@
         <v>1009</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D11" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E11" t="n">
         <v>6</v>
       </c>
       <c r="F11" t="n">
         <v>1</v>
+      </c>
+      <c r="G11" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -2147,19 +2207,22 @@
         <v>1010</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D12" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E12" t="n">
         <v>6</v>
       </c>
       <c r="F12" t="n">
         <v>1</v>
+      </c>
+      <c r="G12" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -2167,19 +2230,22 @@
         <v>1011</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D13" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E13" t="n">
         <v>6</v>
       </c>
       <c r="F13" t="n">
         <v>1</v>
+      </c>
+      <c r="G13" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -2187,13 +2253,13 @@
         <v>1012</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C14" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D14" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E14" t="n">
         <v>6</v>
@@ -2207,13 +2273,13 @@
         <v>1013</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C15" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D15" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E15" t="n">
         <v>6</v>
@@ -2227,13 +2293,13 @@
         <v>1014</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D16" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E16" t="n">
         <v>6</v>
@@ -2247,13 +2313,13 @@
         <v>1015</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C17" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D17" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E17" t="n">
         <v>6</v>
@@ -2267,13 +2333,13 @@
         <v>1016</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C18" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D18" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E18" t="n">
         <v>6</v>
@@ -2287,13 +2353,13 @@
         <v>1017</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C19" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D19" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E19" t="n">
         <v>6</v>
@@ -2307,13 +2373,13 @@
         <v>1018</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C20" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D20" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E20" t="n">
         <v>6</v>
@@ -2327,13 +2393,13 @@
         <v>1019</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C21" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D21" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E21" t="n">
         <v>6</v>
@@ -2347,13 +2413,13 @@
         <v>1020</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C22" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D22" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E22" t="n">
         <v>6</v>
@@ -2367,13 +2433,13 @@
         <v>1021</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C23" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D23" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E23" t="n">
         <v>6</v>
@@ -2387,13 +2453,13 @@
         <v>1022</v>
       </c>
       <c r="B24" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C24" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D24" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E24" t="n">
         <v>6</v>
@@ -2407,13 +2473,13 @@
         <v>1023</v>
       </c>
       <c r="B25" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C25" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D25" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E25" t="n">
         <v>6</v>
@@ -2427,13 +2493,13 @@
         <v>1024</v>
       </c>
       <c r="B26" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C26" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D26" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E26" t="n">
         <v>6</v>
@@ -2447,13 +2513,13 @@
         <v>1025</v>
       </c>
       <c r="B27" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C27" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D27" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E27" t="n">
         <v>6</v>
@@ -2467,13 +2533,13 @@
         <v>1026</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C28" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D28" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E28" t="n">
         <v>6</v>
@@ -2487,13 +2553,13 @@
         <v>1027</v>
       </c>
       <c r="B29" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C29" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D29" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E29" t="n">
         <v>6</v>
@@ -2507,13 +2573,13 @@
         <v>1028</v>
       </c>
       <c r="B30" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C30" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D30" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E30" t="n">
         <v>6</v>
@@ -2527,13 +2593,13 @@
         <v>1029</v>
       </c>
       <c r="B31" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="C31" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D31" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E31" t="n">
         <v>6</v>
@@ -2547,13 +2613,13 @@
         <v>1030</v>
       </c>
       <c r="B32" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="C32" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D32" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E32" t="n">
         <v>6</v>
@@ -2567,13 +2633,13 @@
         <v>1031</v>
       </c>
       <c r="B33" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C33" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D33" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E33" t="n">
         <v>6</v>
@@ -2587,13 +2653,13 @@
         <v>1032</v>
       </c>
       <c r="B34" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C34" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D34" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E34" t="n">
         <v>6</v>
@@ -2607,13 +2673,13 @@
         <v>1033</v>
       </c>
       <c r="B35" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="C35" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D35" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E35" t="n">
         <v>6</v>
@@ -2627,13 +2693,13 @@
         <v>1034</v>
       </c>
       <c r="B36" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="C36" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D36" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E36" t="n">
         <v>6</v>
@@ -2647,13 +2713,13 @@
         <v>1035</v>
       </c>
       <c r="B37" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="C37" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D37" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E37" t="n">
         <v>6</v>
@@ -2667,13 +2733,13 @@
         <v>1036</v>
       </c>
       <c r="B38" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="C38" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D38" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E38" t="n">
         <v>6</v>
@@ -2687,13 +2753,13 @@
         <v>1037</v>
       </c>
       <c r="B39" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="C39" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D39" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E39" t="n">
         <v>6</v>
@@ -2707,13 +2773,13 @@
         <v>1038</v>
       </c>
       <c r="B40" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C40" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D40" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E40" t="n">
         <v>6</v>
@@ -2727,13 +2793,13 @@
         <v>1039</v>
       </c>
       <c r="B41" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="C41" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D41" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E41" t="n">
         <v>6</v>
@@ -2747,13 +2813,13 @@
         <v>1040</v>
       </c>
       <c r="B42" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C42" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D42" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E42" t="n">
         <v>6</v>
@@ -2767,13 +2833,13 @@
         <v>1041</v>
       </c>
       <c r="B43" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="C43" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D43" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E43" t="n">
         <v>6</v>
@@ -2787,13 +2853,13 @@
         <v>1042</v>
       </c>
       <c r="B44" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C44" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D44" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E44" t="n">
         <v>6</v>
@@ -2807,13 +2873,13 @@
         <v>1043</v>
       </c>
       <c r="B45" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="C45" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D45" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E45" t="n">
         <v>6</v>
@@ -2827,13 +2893,13 @@
         <v>1044</v>
       </c>
       <c r="B46" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="C46" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D46" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E46" t="n">
         <v>6</v>
@@ -2847,13 +2913,13 @@
         <v>1045</v>
       </c>
       <c r="B47" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C47" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D47" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E47" t="n">
         <v>6</v>
@@ -2867,13 +2933,13 @@
         <v>1046</v>
       </c>
       <c r="B48" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="C48" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D48" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E48" t="n">
         <v>6</v>
@@ -2887,13 +2953,13 @@
         <v>1047</v>
       </c>
       <c r="B49" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C49" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D49" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E49" t="n">
         <v>6</v>
@@ -2907,13 +2973,13 @@
         <v>1048</v>
       </c>
       <c r="B50" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="C50" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D50" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E50" t="n">
         <v>6</v>
@@ -2927,13 +2993,13 @@
         <v>1049</v>
       </c>
       <c r="B51" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C51" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D51" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E51" t="n">
         <v>6</v>
@@ -2947,13 +3013,13 @@
         <v>1050</v>
       </c>
       <c r="B52" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="C52" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D52" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E52" t="n">
         <v>6</v>
@@ -2967,13 +3033,13 @@
         <v>1051</v>
       </c>
       <c r="B53" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="C53" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D53" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E53" t="n">
         <v>6</v>
@@ -2987,13 +3053,13 @@
         <v>1052</v>
       </c>
       <c r="B54" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C54" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D54" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E54" t="n">
         <v>6</v>
@@ -3007,13 +3073,13 @@
         <v>1053</v>
       </c>
       <c r="B55" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C55" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D55" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E55" t="n">
         <v>6</v>
@@ -3027,13 +3093,13 @@
         <v>1054</v>
       </c>
       <c r="B56" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="C56" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D56" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E56" t="n">
         <v>6</v>
@@ -3047,13 +3113,13 @@
         <v>1055</v>
       </c>
       <c r="B57" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C57" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D57" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E57" t="n">
         <v>6</v>
@@ -3067,13 +3133,13 @@
         <v>1056</v>
       </c>
       <c r="B58" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="C58" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D58" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E58" t="n">
         <v>6</v>
@@ -3087,13 +3153,13 @@
         <v>1057</v>
       </c>
       <c r="B59" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="C59" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D59" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E59" t="n">
         <v>6</v>
@@ -3107,13 +3173,13 @@
         <v>1058</v>
       </c>
       <c r="B60" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="C60" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D60" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E60" t="n">
         <v>6</v>
@@ -3127,13 +3193,13 @@
         <v>1059</v>
       </c>
       <c r="B61" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="C61" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D61" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E61" t="n">
         <v>6</v>
@@ -3147,13 +3213,13 @@
         <v>1060</v>
       </c>
       <c r="B62" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="C62" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D62" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E62" t="n">
         <v>6</v>
@@ -3167,13 +3233,13 @@
         <v>1061</v>
       </c>
       <c r="B63" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="C63" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D63" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E63" t="n">
         <v>6</v>
@@ -3187,13 +3253,13 @@
         <v>1062</v>
       </c>
       <c r="B64" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C64" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D64" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E64" t="n">
         <v>6</v>
@@ -3207,13 +3273,13 @@
         <v>1063</v>
       </c>
       <c r="B65" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="C65" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D65" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E65" t="n">
         <v>6</v>
@@ -3227,13 +3293,13 @@
         <v>1064</v>
       </c>
       <c r="B66" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="C66" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D66" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E66" t="n">
         <v>6</v>
@@ -3247,13 +3313,13 @@
         <v>1065</v>
       </c>
       <c r="B67" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="C67" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D67" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E67" t="n">
         <v>6</v>
@@ -3267,13 +3333,13 @@
         <v>1066</v>
       </c>
       <c r="B68" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="C68" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D68" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E68" t="n">
         <v>6</v>
@@ -3287,13 +3353,13 @@
         <v>1067</v>
       </c>
       <c r="B69" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="C69" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D69" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E69" t="n">
         <v>6</v>
@@ -3307,13 +3373,13 @@
         <v>1068</v>
       </c>
       <c r="B70" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="C70" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D70" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E70" t="n">
         <v>6</v>
@@ -3327,13 +3393,13 @@
         <v>1069</v>
       </c>
       <c r="B71" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="C71" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D71" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E71" t="n">
         <v>6</v>
@@ -3347,13 +3413,13 @@
         <v>1070</v>
       </c>
       <c r="B72" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="C72" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D72" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E72" t="n">
         <v>6</v>
@@ -3367,13 +3433,13 @@
         <v>1071</v>
       </c>
       <c r="B73" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="C73" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D73" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E73" t="n">
         <v>6</v>
@@ -3387,13 +3453,13 @@
         <v>1072</v>
       </c>
       <c r="B74" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="C74" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D74" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E74" t="n">
         <v>6</v>
@@ -3407,13 +3473,13 @@
         <v>1073</v>
       </c>
       <c r="B75" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="C75" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D75" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E75" t="n">
         <v>6</v>
@@ -3427,13 +3493,13 @@
         <v>1074</v>
       </c>
       <c r="B76" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C76" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D76" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E76" t="n">
         <v>6</v>
@@ -3447,13 +3513,13 @@
         <v>1075</v>
       </c>
       <c r="B77" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="C77" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D77" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E77" t="n">
         <v>6</v>
@@ -3467,13 +3533,13 @@
         <v>1076</v>
       </c>
       <c r="B78" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="C78" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D78" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E78" t="n">
         <v>6</v>
@@ -3487,13 +3553,13 @@
         <v>1077</v>
       </c>
       <c r="B79" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="C79" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D79" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E79" t="n">
         <v>6</v>
@@ -3507,13 +3573,13 @@
         <v>1078</v>
       </c>
       <c r="B80" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="C80" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D80" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E80" t="n">
         <v>6</v>
@@ -3527,13 +3593,13 @@
         <v>1079</v>
       </c>
       <c r="B81" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="C81" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D81" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E81" t="n">
         <v>6</v>
@@ -3547,13 +3613,13 @@
         <v>1080</v>
       </c>
       <c r="B82" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="C82" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D82" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E82" t="n">
         <v>6</v>
@@ -3567,13 +3633,13 @@
         <v>1081</v>
       </c>
       <c r="B83" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="C83" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D83" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E83" t="n">
         <v>6</v>
@@ -3587,13 +3653,13 @@
         <v>1082</v>
       </c>
       <c r="B84" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="C84" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D84" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E84" t="n">
         <v>6</v>
@@ -3607,13 +3673,13 @@
         <v>1083</v>
       </c>
       <c r="B85" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="C85" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D85" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E85" t="n">
         <v>6</v>
@@ -3627,13 +3693,13 @@
         <v>1084</v>
       </c>
       <c r="B86" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="C86" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D86" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E86" t="n">
         <v>6</v>
@@ -3647,13 +3713,13 @@
         <v>1085</v>
       </c>
       <c r="B87" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="C87" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D87" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E87" t="n">
         <v>6</v>
@@ -3667,13 +3733,13 @@
         <v>1086</v>
       </c>
       <c r="B88" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="C88" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D88" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E88" t="n">
         <v>6</v>
@@ -3687,13 +3753,13 @@
         <v>1087</v>
       </c>
       <c r="B89" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="C89" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D89" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E89" t="n">
         <v>6</v>
@@ -3707,13 +3773,13 @@
         <v>1088</v>
       </c>
       <c r="B90" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="C90" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D90" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E90" t="n">
         <v>6</v>
@@ -3727,13 +3793,13 @@
         <v>1089</v>
       </c>
       <c r="B91" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="C91" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D91" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E91" t="n">
         <v>6</v>
@@ -3747,13 +3813,13 @@
         <v>1090</v>
       </c>
       <c r="B92" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="C92" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D92" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E92" t="n">
         <v>6</v>
@@ -3767,13 +3833,13 @@
         <v>1091</v>
       </c>
       <c r="B93" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="C93" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D93" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E93" t="n">
         <v>6</v>
@@ -3787,13 +3853,13 @@
         <v>1092</v>
       </c>
       <c r="B94" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C94" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D94" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E94" t="n">
         <v>6</v>
@@ -3807,13 +3873,13 @@
         <v>1093</v>
       </c>
       <c r="B95" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="C95" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D95" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E95" t="n">
         <v>6</v>
@@ -3827,13 +3893,13 @@
         <v>1094</v>
       </c>
       <c r="B96" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="C96" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D96" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E96" t="n">
         <v>6</v>
@@ -3847,13 +3913,13 @@
         <v>1095</v>
       </c>
       <c r="B97" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="C97" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D97" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E97" t="n">
         <v>6</v>
@@ -3867,13 +3933,13 @@
         <v>1096</v>
       </c>
       <c r="B98" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="C98" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D98" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E98" t="n">
         <v>6</v>
@@ -3887,13 +3953,13 @@
         <v>1097</v>
       </c>
       <c r="B99" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="C99" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D99" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E99" t="n">
         <v>6</v>
@@ -3907,13 +3973,13 @@
         <v>1098</v>
       </c>
       <c r="B100" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="C100" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D100" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E100" t="n">
         <v>6</v>
@@ -3927,13 +3993,13 @@
         <v>1099</v>
       </c>
       <c r="B101" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="C101" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D101" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E101" t="n">
         <v>6</v>
@@ -3947,13 +4013,13 @@
         <v>1100</v>
       </c>
       <c r="B102" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="C102" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D102" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E102" t="n">
         <v>6</v>
@@ -3967,13 +4033,13 @@
         <v>1101</v>
       </c>
       <c r="B103" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="C103" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D103" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E103" t="n">
         <v>6</v>
@@ -3987,13 +4053,13 @@
         <v>1102</v>
       </c>
       <c r="B104" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="C104" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D104" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E104" t="n">
         <v>6</v>
@@ -4007,13 +4073,13 @@
         <v>1103</v>
       </c>
       <c r="B105" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="C105" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D105" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E105" t="n">
         <v>6</v>
@@ -4027,13 +4093,13 @@
         <v>1104</v>
       </c>
       <c r="B106" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="C106" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D106" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E106" t="n">
         <v>6</v>
@@ -4047,13 +4113,13 @@
         <v>1105</v>
       </c>
       <c r="B107" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="C107" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D107" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E107" t="n">
         <v>6</v>
@@ -4067,13 +4133,13 @@
         <v>1106</v>
       </c>
       <c r="B108" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="C108" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D108" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E108" t="n">
         <v>6</v>
@@ -4087,13 +4153,13 @@
         <v>1107</v>
       </c>
       <c r="B109" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="C109" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D109" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E109" t="n">
         <v>6</v>
@@ -4107,13 +4173,13 @@
         <v>1108</v>
       </c>
       <c r="B110" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="C110" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D110" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E110" t="n">
         <v>6</v>
@@ -4127,13 +4193,13 @@
         <v>1109</v>
       </c>
       <c r="B111" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C111" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D111" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E111" t="n">
         <v>6</v>
@@ -4147,13 +4213,13 @@
         <v>1110</v>
       </c>
       <c r="B112" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="C112" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D112" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E112" t="n">
         <v>6</v>
@@ -4167,13 +4233,13 @@
         <v>1111</v>
       </c>
       <c r="B113" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="C113" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D113" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E113" t="n">
         <v>6</v>
@@ -4187,13 +4253,13 @@
         <v>1112</v>
       </c>
       <c r="B114" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="C114" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D114" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E114" t="n">
         <v>6</v>
@@ -4207,13 +4273,13 @@
         <v>1113</v>
       </c>
       <c r="B115" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="C115" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D115" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E115" t="n">
         <v>6</v>
@@ -4227,13 +4293,13 @@
         <v>1114</v>
       </c>
       <c r="B116" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="C116" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D116" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E116" t="n">
         <v>6</v>
@@ -4247,13 +4313,13 @@
         <v>1115</v>
       </c>
       <c r="B117" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="C117" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D117" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E117" t="n">
         <v>6</v>
@@ -4267,13 +4333,13 @@
         <v>1116</v>
       </c>
       <c r="B118" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="C118" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D118" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E118" t="n">
         <v>6</v>
@@ -4287,13 +4353,13 @@
         <v>1117</v>
       </c>
       <c r="B119" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="C119" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D119" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E119" t="n">
         <v>6</v>
@@ -4307,13 +4373,13 @@
         <v>1118</v>
       </c>
       <c r="B120" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="C120" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D120" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E120" t="n">
         <v>6</v>
@@ -4327,13 +4393,13 @@
         <v>1119</v>
       </c>
       <c r="B121" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="C121" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D121" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E121" t="n">
         <v>6</v>
@@ -4347,13 +4413,13 @@
         <v>1120</v>
       </c>
       <c r="B122" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="C122" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D122" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E122" t="n">
         <v>6</v>
@@ -4367,13 +4433,13 @@
         <v>1121</v>
       </c>
       <c r="B123" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="C123" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D123" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E123" t="n">
         <v>6</v>
@@ -4387,13 +4453,13 @@
         <v>1122</v>
       </c>
       <c r="B124" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="C124" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D124" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E124" t="n">
         <v>6</v>
@@ -4407,13 +4473,13 @@
         <v>1123</v>
       </c>
       <c r="B125" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="C125" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D125" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E125" t="n">
         <v>6</v>
@@ -4427,13 +4493,13 @@
         <v>1124</v>
       </c>
       <c r="B126" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="C126" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D126" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E126" t="n">
         <v>6</v>
@@ -4447,13 +4513,13 @@
         <v>1125</v>
       </c>
       <c r="B127" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="C127" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D127" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E127" t="n">
         <v>6</v>
@@ -4467,13 +4533,13 @@
         <v>1126</v>
       </c>
       <c r="B128" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="C128" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D128" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E128" t="n">
         <v>6</v>
@@ -4487,13 +4553,13 @@
         <v>1127</v>
       </c>
       <c r="B129" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="C129" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D129" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E129" t="n">
         <v>6</v>
@@ -4507,13 +4573,13 @@
         <v>1128</v>
       </c>
       <c r="B130" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="C130" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D130" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E130" t="n">
         <v>6</v>
@@ -4527,13 +4593,13 @@
         <v>1129</v>
       </c>
       <c r="B131" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="C131" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D131" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E131" t="n">
         <v>6</v>
@@ -4547,13 +4613,13 @@
         <v>1130</v>
       </c>
       <c r="B132" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="C132" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D132" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E132" t="n">
         <v>6</v>
@@ -4567,13 +4633,13 @@
         <v>1131</v>
       </c>
       <c r="B133" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="C133" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D133" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E133" t="n">
         <v>6</v>
@@ -4587,13 +4653,13 @@
         <v>1132</v>
       </c>
       <c r="B134" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="C134" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D134" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E134" t="n">
         <v>6</v>
@@ -4607,13 +4673,13 @@
         <v>1133</v>
       </c>
       <c r="B135" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="C135" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D135" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E135" t="n">
         <v>6</v>
@@ -4627,13 +4693,13 @@
         <v>1134</v>
       </c>
       <c r="B136" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="C136" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D136" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E136" t="n">
         <v>6</v>
@@ -4647,13 +4713,13 @@
         <v>1135</v>
       </c>
       <c r="B137" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="C137" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D137" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E137" t="n">
         <v>6</v>
@@ -4667,13 +4733,13 @@
         <v>1136</v>
       </c>
       <c r="B138" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="C138" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D138" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E138" t="n">
         <v>6</v>
@@ -4687,13 +4753,13 @@
         <v>1137</v>
       </c>
       <c r="B139" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="C139" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D139" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E139" t="n">
         <v>6</v>
@@ -4707,13 +4773,13 @@
         <v>1138</v>
       </c>
       <c r="B140" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="C140" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D140" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E140" t="n">
         <v>6</v>
@@ -4727,13 +4793,13 @@
         <v>1139</v>
       </c>
       <c r="B141" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="C141" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D141" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E141" t="n">
         <v>6</v>
@@ -4747,13 +4813,13 @@
         <v>1140</v>
       </c>
       <c r="B142" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="C142" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D142" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E142" t="n">
         <v>6</v>
@@ -4767,13 +4833,13 @@
         <v>1141</v>
       </c>
       <c r="B143" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="C143" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D143" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E143" t="n">
         <v>6</v>
@@ -4787,13 +4853,13 @@
         <v>1142</v>
       </c>
       <c r="B144" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="C144" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D144" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E144" t="n">
         <v>6</v>
@@ -4807,13 +4873,13 @@
         <v>1143</v>
       </c>
       <c r="B145" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="C145" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D145" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E145" t="n">
         <v>6</v>
@@ -4827,13 +4893,13 @@
         <v>1144</v>
       </c>
       <c r="B146" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="C146" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D146" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E146" t="n">
         <v>6</v>
@@ -4847,13 +4913,13 @@
         <v>1145</v>
       </c>
       <c r="B147" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="C147" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D147" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E147" t="n">
         <v>6</v>
@@ -4867,13 +4933,13 @@
         <v>1146</v>
       </c>
       <c r="B148" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="C148" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D148" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E148" t="n">
         <v>6</v>
@@ -4887,13 +4953,13 @@
         <v>1147</v>
       </c>
       <c r="B149" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="C149" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D149" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E149" t="n">
         <v>6</v>
@@ -4907,13 +4973,13 @@
         <v>1148</v>
       </c>
       <c r="B150" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="C150" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D150" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E150" t="n">
         <v>6</v>
@@ -4927,13 +4993,13 @@
         <v>1149</v>
       </c>
       <c r="B151" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="C151" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D151" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E151" t="n">
         <v>6</v>
@@ -4947,13 +5013,13 @@
         <v>1150</v>
       </c>
       <c r="B152" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="C152" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D152" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E152" t="n">
         <v>6</v>
@@ -4967,13 +5033,13 @@
         <v>1151</v>
       </c>
       <c r="B153" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="C153" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D153" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E153" t="n">
         <v>6</v>
@@ -4987,13 +5053,13 @@
         <v>1152</v>
       </c>
       <c r="B154" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="C154" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D154" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E154" t="n">
         <v>6</v>
@@ -5007,13 +5073,13 @@
         <v>1153</v>
       </c>
       <c r="B155" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="C155" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D155" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E155" t="n">
         <v>6</v>
@@ -5027,13 +5093,13 @@
         <v>1154</v>
       </c>
       <c r="B156" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="C156" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D156" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E156" t="n">
         <v>6</v>
@@ -5047,13 +5113,13 @@
         <v>1155</v>
       </c>
       <c r="B157" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="C157" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D157" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E157" t="n">
         <v>6</v>
@@ -5067,13 +5133,13 @@
         <v>1156</v>
       </c>
       <c r="B158" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="C158" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D158" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E158" t="n">
         <v>6</v>
@@ -5087,13 +5153,13 @@
         <v>1157</v>
       </c>
       <c r="B159" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="C159" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D159" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E159" t="n">
         <v>6</v>
@@ -5107,13 +5173,13 @@
         <v>1158</v>
       </c>
       <c r="B160" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="C160" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D160" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E160" t="n">
         <v>6</v>
@@ -5127,13 +5193,13 @@
         <v>1159</v>
       </c>
       <c r="B161" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="C161" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D161" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E161" t="n">
         <v>6</v>
@@ -5147,13 +5213,13 @@
         <v>1160</v>
       </c>
       <c r="B162" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="C162" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D162" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E162" t="n">
         <v>6</v>
@@ -5167,13 +5233,13 @@
         <v>1161</v>
       </c>
       <c r="B163" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="C163" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D163" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E163" t="n">
         <v>6</v>
@@ -5187,13 +5253,13 @@
         <v>1162</v>
       </c>
       <c r="B164" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="C164" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D164" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E164" t="n">
         <v>6</v>
@@ -5207,13 +5273,13 @@
         <v>1163</v>
       </c>
       <c r="B165" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="C165" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D165" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E165" t="n">
         <v>6</v>
@@ -5227,13 +5293,13 @@
         <v>1164</v>
       </c>
       <c r="B166" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="C166" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D166" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E166" t="n">
         <v>6</v>
@@ -5247,13 +5313,13 @@
         <v>1165</v>
       </c>
       <c r="B167" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="C167" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D167" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E167" t="n">
         <v>6</v>
@@ -5267,13 +5333,13 @@
         <v>1166</v>
       </c>
       <c r="B168" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="C168" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D168" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E168" t="n">
         <v>6</v>
@@ -5287,13 +5353,13 @@
         <v>1167</v>
       </c>
       <c r="B169" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="C169" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D169" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E169" t="n">
         <v>6</v>
@@ -5307,13 +5373,13 @@
         <v>1168</v>
       </c>
       <c r="B170" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="C170" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D170" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E170" t="n">
         <v>6</v>
@@ -5327,13 +5393,13 @@
         <v>1169</v>
       </c>
       <c r="B171" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="C171" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D171" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E171" t="n">
         <v>6</v>
@@ -5347,13 +5413,13 @@
         <v>1170</v>
       </c>
       <c r="B172" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="C172" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D172" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E172" t="n">
         <v>6</v>
@@ -5367,13 +5433,13 @@
         <v>1171</v>
       </c>
       <c r="B173" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="C173" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D173" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E173" t="n">
         <v>6</v>
@@ -5387,13 +5453,13 @@
         <v>1172</v>
       </c>
       <c r="B174" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="C174" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D174" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E174" t="n">
         <v>6</v>
@@ -5407,13 +5473,13 @@
         <v>1173</v>
       </c>
       <c r="B175" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="C175" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D175" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E175" t="n">
         <v>6</v>
@@ -5427,13 +5493,13 @@
         <v>1174</v>
       </c>
       <c r="B176" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="C176" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D176" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E176" t="n">
         <v>6</v>
@@ -5447,13 +5513,13 @@
         <v>1175</v>
       </c>
       <c r="B177" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="C177" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D177" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E177" t="n">
         <v>6</v>
@@ -5467,13 +5533,13 @@
         <v>1176</v>
       </c>
       <c r="B178" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="C178" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D178" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E178" t="n">
         <v>6</v>
@@ -5487,13 +5553,13 @@
         <v>1177</v>
       </c>
       <c r="B179" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="C179" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D179" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E179" t="n">
         <v>6</v>
@@ -5507,13 +5573,13 @@
         <v>1178</v>
       </c>
       <c r="B180" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="C180" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D180" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E180" t="n">
         <v>6</v>
@@ -5527,13 +5593,13 @@
         <v>1179</v>
       </c>
       <c r="B181" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="C181" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D181" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E181" t="n">
         <v>6</v>
@@ -5547,13 +5613,13 @@
         <v>1180</v>
       </c>
       <c r="B182" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="C182" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D182" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E182" t="n">
         <v>6</v>
@@ -5567,13 +5633,13 @@
         <v>1181</v>
       </c>
       <c r="B183" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="C183" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D183" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E183" t="n">
         <v>6</v>
@@ -5587,13 +5653,13 @@
         <v>1182</v>
       </c>
       <c r="B184" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="C184" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D184" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E184" t="n">
         <v>6</v>
@@ -5607,13 +5673,13 @@
         <v>1183</v>
       </c>
       <c r="B185" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="C185" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D185" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E185" t="n">
         <v>6</v>
@@ -5627,13 +5693,13 @@
         <v>1184</v>
       </c>
       <c r="B186" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="C186" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D186" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E186" t="n">
         <v>6</v>
@@ -5647,13 +5713,13 @@
         <v>1185</v>
       </c>
       <c r="B187" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="C187" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D187" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E187" t="n">
         <v>6</v>
@@ -5667,13 +5733,13 @@
         <v>1186</v>
       </c>
       <c r="B188" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="C188" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D188" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E188" t="n">
         <v>6</v>
@@ -5687,13 +5753,13 @@
         <v>1187</v>
       </c>
       <c r="B189" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="C189" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D189" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E189" t="n">
         <v>6</v>
@@ -5707,13 +5773,13 @@
         <v>1188</v>
       </c>
       <c r="B190" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="C190" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D190" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E190" t="n">
         <v>6</v>
@@ -5727,13 +5793,13 @@
         <v>1189</v>
       </c>
       <c r="B191" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="C191" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D191" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E191" t="n">
         <v>6</v>
@@ -5747,13 +5813,13 @@
         <v>1190</v>
       </c>
       <c r="B192" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="C192" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D192" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E192" t="n">
         <v>6</v>
@@ -5767,13 +5833,13 @@
         <v>1191</v>
       </c>
       <c r="B193" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="C193" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D193" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E193" t="n">
         <v>6</v>
@@ -5787,13 +5853,13 @@
         <v>1192</v>
       </c>
       <c r="B194" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="C194" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D194" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E194" t="n">
         <v>6</v>
@@ -5807,13 +5873,13 @@
         <v>1193</v>
       </c>
       <c r="B195" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="C195" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D195" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E195" t="n">
         <v>6</v>
@@ -5827,13 +5893,13 @@
         <v>1194</v>
       </c>
       <c r="B196" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="C196" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D196" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E196" t="n">
         <v>6</v>
@@ -5847,13 +5913,13 @@
         <v>1195</v>
       </c>
       <c r="B197" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="C197" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D197" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E197" t="n">
         <v>6</v>
@@ -5867,13 +5933,13 @@
         <v>1196</v>
       </c>
       <c r="B198" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="C198" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D198" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E198" t="n">
         <v>6</v>
@@ -5887,13 +5953,13 @@
         <v>1197</v>
       </c>
       <c r="B199" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="C199" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D199" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E199" t="n">
         <v>6</v>
@@ -5907,13 +5973,13 @@
         <v>1198</v>
       </c>
       <c r="B200" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="C200" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D200" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E200" t="n">
         <v>6</v>
@@ -5927,13 +5993,13 @@
         <v>1199</v>
       </c>
       <c r="B201" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="C201" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D201" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E201" t="n">
         <v>6</v>
@@ -5947,13 +6013,13 @@
         <v>1200</v>
       </c>
       <c r="B202" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="C202" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D202" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E202" t="n">
         <v>6</v>
@@ -5967,13 +6033,13 @@
         <v>1201</v>
       </c>
       <c r="B203" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="C203" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D203" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E203" t="n">
         <v>6</v>
@@ -5987,13 +6053,13 @@
         <v>1202</v>
       </c>
       <c r="B204" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="C204" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D204" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E204" t="n">
         <v>6</v>
@@ -6007,13 +6073,13 @@
         <v>1203</v>
       </c>
       <c r="B205" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="C205" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D205" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E205" t="n">
         <v>6</v>
@@ -6027,13 +6093,13 @@
         <v>1204</v>
       </c>
       <c r="B206" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="C206" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D206" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E206" t="n">
         <v>6</v>
@@ -6047,13 +6113,13 @@
         <v>1205</v>
       </c>
       <c r="B207" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="C207" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D207" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E207" t="n">
         <v>6</v>
@@ -6067,13 +6133,13 @@
         <v>1206</v>
       </c>
       <c r="B208" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="C208" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D208" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E208" t="n">
         <v>6</v>
@@ -6087,13 +6153,13 @@
         <v>1207</v>
       </c>
       <c r="B209" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="C209" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D209" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E209" t="n">
         <v>6</v>
@@ -6107,13 +6173,13 @@
         <v>1208</v>
       </c>
       <c r="B210" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="C210" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D210" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E210" t="n">
         <v>6</v>
@@ -6127,13 +6193,13 @@
         <v>1209</v>
       </c>
       <c r="B211" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="C211" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D211" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E211" t="n">
         <v>6</v>
@@ -6147,13 +6213,13 @@
         <v>1210</v>
       </c>
       <c r="B212" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="C212" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D212" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E212" t="n">
         <v>6</v>
@@ -6167,13 +6233,13 @@
         <v>1211</v>
       </c>
       <c r="B213" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="C213" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D213" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E213" t="n">
         <v>6</v>
@@ -6187,13 +6253,13 @@
         <v>1212</v>
       </c>
       <c r="B214" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="C214" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D214" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E214" t="n">
         <v>6</v>
@@ -6207,13 +6273,13 @@
         <v>1213</v>
       </c>
       <c r="B215" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="C215" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D215" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E215" t="n">
         <v>6</v>
@@ -6227,13 +6293,13 @@
         <v>1214</v>
       </c>
       <c r="B216" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="C216" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D216" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E216" t="n">
         <v>6</v>
@@ -6247,13 +6313,13 @@
         <v>1215</v>
       </c>
       <c r="B217" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="C217" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D217" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E217" t="n">
         <v>6</v>
@@ -6267,13 +6333,13 @@
         <v>1216</v>
       </c>
       <c r="B218" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="C218" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D218" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E218" t="n">
         <v>6</v>
@@ -6287,13 +6353,13 @@
         <v>1217</v>
       </c>
       <c r="B219" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="C219" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D219" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E219" t="n">
         <v>6</v>
@@ -6307,13 +6373,13 @@
         <v>1218</v>
       </c>
       <c r="B220" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="C220" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D220" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E220" t="n">
         <v>6</v>
@@ -6327,13 +6393,13 @@
         <v>1219</v>
       </c>
       <c r="B221" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="C221" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D221" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E221" t="n">
         <v>6</v>
@@ -6347,13 +6413,13 @@
         <v>1220</v>
       </c>
       <c r="B222" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="C222" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D222" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E222" t="n">
         <v>6</v>
@@ -6367,13 +6433,13 @@
         <v>1221</v>
       </c>
       <c r="B223" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="C223" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D223" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E223" t="n">
         <v>6</v>
@@ -6387,13 +6453,13 @@
         <v>1222</v>
       </c>
       <c r="B224" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="C224" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D224" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E224" t="n">
         <v>6</v>
@@ -6407,13 +6473,13 @@
         <v>1223</v>
       </c>
       <c r="B225" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="C225" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D225" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E225" t="n">
         <v>6</v>
@@ -6427,13 +6493,13 @@
         <v>1224</v>
       </c>
       <c r="B226" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="C226" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D226" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E226" t="n">
         <v>6</v>
@@ -6447,13 +6513,13 @@
         <v>1225</v>
       </c>
       <c r="B227" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="C227" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D227" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E227" t="n">
         <v>6</v>
@@ -6467,13 +6533,13 @@
         <v>1226</v>
       </c>
       <c r="B228" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="C228" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D228" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E228" t="n">
         <v>6</v>
@@ -6487,13 +6553,13 @@
         <v>1227</v>
       </c>
       <c r="B229" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="C229" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D229" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E229" t="n">
         <v>6</v>
@@ -6507,13 +6573,13 @@
         <v>1228</v>
       </c>
       <c r="B230" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="C230" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D230" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E230" t="n">
         <v>6</v>
@@ -6527,13 +6593,13 @@
         <v>1229</v>
       </c>
       <c r="B231" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="C231" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D231" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E231" t="n">
         <v>6</v>
@@ -6547,13 +6613,13 @@
         <v>1230</v>
       </c>
       <c r="B232" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="C232" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D232" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E232" t="n">
         <v>6</v>
@@ -6567,13 +6633,13 @@
         <v>1231</v>
       </c>
       <c r="B233" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="C233" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D233" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E233" t="n">
         <v>6</v>
@@ -6587,13 +6653,13 @@
         <v>1232</v>
       </c>
       <c r="B234" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="C234" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D234" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E234" t="n">
         <v>6</v>
@@ -6607,13 +6673,13 @@
         <v>1233</v>
       </c>
       <c r="B235" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="C235" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D235" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E235" t="n">
         <v>6</v>
@@ -6627,13 +6693,13 @@
         <v>1234</v>
       </c>
       <c r="B236" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="C236" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D236" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E236" t="n">
         <v>6</v>
@@ -6647,13 +6713,13 @@
         <v>1235</v>
       </c>
       <c r="B237" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="C237" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D237" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E237" t="n">
         <v>6</v>
@@ -6667,13 +6733,13 @@
         <v>1236</v>
       </c>
       <c r="B238" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="C238" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D238" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E238" t="n">
         <v>6</v>
@@ -6687,13 +6753,13 @@
         <v>1237</v>
       </c>
       <c r="B239" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="C239" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D239" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E239" t="n">
         <v>6</v>
@@ -6707,13 +6773,13 @@
         <v>1238</v>
       </c>
       <c r="B240" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="C240" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D240" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E240" t="n">
         <v>6</v>
@@ -6727,13 +6793,13 @@
         <v>1239</v>
       </c>
       <c r="B241" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="C241" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D241" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E241" t="n">
         <v>6</v>
@@ -6747,13 +6813,13 @@
         <v>1240</v>
       </c>
       <c r="B242" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="C242" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D242" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E242" t="n">
         <v>6</v>
@@ -6767,13 +6833,13 @@
         <v>1241</v>
       </c>
       <c r="B243" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="C243" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D243" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E243" t="n">
         <v>6</v>
@@ -6787,13 +6853,13 @@
         <v>1242</v>
       </c>
       <c r="B244" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="C244" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D244" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E244" t="n">
         <v>6</v>
@@ -6807,13 +6873,13 @@
         <v>1243</v>
       </c>
       <c r="B245" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="C245" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D245" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E245" t="n">
         <v>6</v>
@@ -6827,13 +6893,13 @@
         <v>1244</v>
       </c>
       <c r="B246" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="C246" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D246" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E246" t="n">
         <v>6</v>
@@ -6847,13 +6913,13 @@
         <v>1245</v>
       </c>
       <c r="B247" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="C247" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D247" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E247" t="n">
         <v>6</v>
@@ -6867,13 +6933,13 @@
         <v>1246</v>
       </c>
       <c r="B248" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="C248" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D248" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E248" t="n">
         <v>6</v>
@@ -6887,13 +6953,13 @@
         <v>1247</v>
       </c>
       <c r="B249" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="C249" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D249" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E249" t="n">
         <v>6</v>
@@ -6907,13 +6973,13 @@
         <v>1248</v>
       </c>
       <c r="B250" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="C250" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D250" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E250" t="n">
         <v>6</v>
@@ -6927,13 +6993,13 @@
         <v>1249</v>
       </c>
       <c r="B251" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="C251" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D251" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E251" t="n">
         <v>6</v>
@@ -6947,13 +7013,13 @@
         <v>1250</v>
       </c>
       <c r="B252" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="C252" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D252" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E252" t="n">
         <v>6</v>
@@ -6967,13 +7033,13 @@
         <v>1251</v>
       </c>
       <c r="B253" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="C253" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D253" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E253" t="n">
         <v>6</v>
@@ -6987,13 +7053,13 @@
         <v>1252</v>
       </c>
       <c r="B254" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="C254" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D254" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E254" t="n">
         <v>6</v>
@@ -7007,13 +7073,13 @@
         <v>1253</v>
       </c>
       <c r="B255" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="C255" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D255" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E255" t="n">
         <v>6</v>
@@ -7027,13 +7093,13 @@
         <v>1254</v>
       </c>
       <c r="B256" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="C256" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D256" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E256" t="n">
         <v>6</v>
@@ -7047,13 +7113,13 @@
         <v>1255</v>
       </c>
       <c r="B257" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="C257" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D257" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E257" t="n">
         <v>6</v>
@@ -7067,13 +7133,13 @@
         <v>1256</v>
       </c>
       <c r="B258" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="C258" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D258" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E258" t="n">
         <v>6</v>
@@ -7087,13 +7153,13 @@
         <v>1257</v>
       </c>
       <c r="B259" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="C259" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D259" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E259" t="n">
         <v>6</v>
@@ -7107,13 +7173,13 @@
         <v>1258</v>
       </c>
       <c r="B260" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="C260" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D260" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E260" t="n">
         <v>6</v>
@@ -7127,13 +7193,13 @@
         <v>1259</v>
       </c>
       <c r="B261" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="C261" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D261" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E261" t="n">
         <v>6</v>
@@ -7147,13 +7213,13 @@
         <v>1260</v>
       </c>
       <c r="B262" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="C262" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D262" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E262" t="n">
         <v>6</v>
@@ -7167,13 +7233,13 @@
         <v>1261</v>
       </c>
       <c r="B263" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="C263" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D263" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E263" t="n">
         <v>6</v>
@@ -7187,13 +7253,13 @@
         <v>1262</v>
       </c>
       <c r="B264" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="C264" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D264" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E264" t="n">
         <v>6</v>
@@ -7207,13 +7273,13 @@
         <v>1263</v>
       </c>
       <c r="B265" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="C265" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D265" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E265" t="n">
         <v>6</v>
@@ -7227,13 +7293,13 @@
         <v>1264</v>
       </c>
       <c r="B266" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="C266" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D266" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E266" t="n">
         <v>6</v>
@@ -7247,13 +7313,13 @@
         <v>1265</v>
       </c>
       <c r="B267" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="C267" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D267" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E267" t="n">
         <v>6</v>
@@ -7267,13 +7333,13 @@
         <v>1266</v>
       </c>
       <c r="B268" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="C268" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D268" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E268" t="n">
         <v>6</v>
@@ -7287,13 +7353,13 @@
         <v>1267</v>
       </c>
       <c r="B269" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="C269" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D269" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E269" t="n">
         <v>6</v>
@@ -7307,13 +7373,13 @@
         <v>1268</v>
       </c>
       <c r="B270" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="C270" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D270" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E270" t="n">
         <v>6</v>
@@ -7327,13 +7393,13 @@
         <v>1269</v>
       </c>
       <c r="B271" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="C271" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D271" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E271" t="n">
         <v>6</v>
@@ -7347,13 +7413,13 @@
         <v>1270</v>
       </c>
       <c r="B272" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="C272" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D272" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E272" t="n">
         <v>6</v>
@@ -7367,13 +7433,13 @@
         <v>1271</v>
       </c>
       <c r="B273" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="C273" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D273" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E273" t="n">
         <v>6</v>
@@ -7387,13 +7453,13 @@
         <v>1272</v>
       </c>
       <c r="B274" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="C274" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D274" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E274" t="n">
         <v>6</v>
@@ -7407,13 +7473,13 @@
         <v>1273</v>
       </c>
       <c r="B275" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="C275" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D275" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E275" t="n">
         <v>6</v>
@@ -7427,13 +7493,13 @@
         <v>1274</v>
       </c>
       <c r="B276" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="C276" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D276" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E276" t="n">
         <v>6</v>
@@ -7447,13 +7513,13 @@
         <v>1275</v>
       </c>
       <c r="B277" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="C277" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D277" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E277" t="n">
         <v>6</v>
@@ -7467,13 +7533,13 @@
         <v>1276</v>
       </c>
       <c r="B278" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="C278" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D278" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E278" t="n">
         <v>6</v>
@@ -7487,13 +7553,13 @@
         <v>1277</v>
       </c>
       <c r="B279" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="C279" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D279" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E279" t="n">
         <v>6</v>
@@ -7507,13 +7573,13 @@
         <v>1278</v>
       </c>
       <c r="B280" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="C280" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D280" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E280" t="n">
         <v>6</v>
@@ -7527,13 +7593,13 @@
         <v>1279</v>
       </c>
       <c r="B281" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="C281" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D281" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E281" t="n">
         <v>6</v>
@@ -7547,13 +7613,13 @@
         <v>1280</v>
       </c>
       <c r="B282" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="C282" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D282" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E282" t="n">
         <v>6</v>
@@ -7567,13 +7633,13 @@
         <v>1281</v>
       </c>
       <c r="B283" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="C283" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D283" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E283" t="n">
         <v>6</v>
@@ -7587,13 +7653,13 @@
         <v>1282</v>
       </c>
       <c r="B284" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="C284" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D284" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E284" t="n">
         <v>6</v>
@@ -7607,13 +7673,13 @@
         <v>1283</v>
       </c>
       <c r="B285" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="C285" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D285" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E285" t="n">
         <v>6</v>
@@ -7627,13 +7693,13 @@
         <v>1284</v>
       </c>
       <c r="B286" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="C286" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D286" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E286" t="n">
         <v>6</v>
@@ -7647,13 +7713,13 @@
         <v>1285</v>
       </c>
       <c r="B287" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="C287" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D287" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E287" t="n">
         <v>6</v>
@@ -7667,13 +7733,13 @@
         <v>1286</v>
       </c>
       <c r="B288" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="C288" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D288" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E288" t="n">
         <v>6</v>
@@ -7687,13 +7753,13 @@
         <v>1287</v>
       </c>
       <c r="B289" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="C289" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D289" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E289" t="n">
         <v>6</v>
@@ -7707,13 +7773,13 @@
         <v>1288</v>
       </c>
       <c r="B290" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="C290" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D290" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E290" t="n">
         <v>6</v>
@@ -7727,13 +7793,13 @@
         <v>1289</v>
       </c>
       <c r="B291" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="C291" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D291" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E291" t="n">
         <v>6</v>
@@ -7747,13 +7813,13 @@
         <v>1290</v>
       </c>
       <c r="B292" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="C292" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D292" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E292" t="n">
         <v>6</v>
@@ -7767,13 +7833,13 @@
         <v>1291</v>
       </c>
       <c r="B293" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="C293" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D293" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E293" t="n">
         <v>6</v>
@@ -7787,13 +7853,13 @@
         <v>1292</v>
       </c>
       <c r="B294" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="C294" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D294" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E294" t="n">
         <v>6</v>
@@ -7807,13 +7873,13 @@
         <v>1293</v>
       </c>
       <c r="B295" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="C295" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D295" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E295" t="n">
         <v>6</v>
@@ -7827,13 +7893,13 @@
         <v>1294</v>
       </c>
       <c r="B296" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="C296" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D296" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E296" t="n">
         <v>6</v>
@@ -7847,13 +7913,13 @@
         <v>1295</v>
       </c>
       <c r="B297" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="C297" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D297" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E297" t="n">
         <v>6</v>
@@ -7867,13 +7933,13 @@
         <v>1296</v>
       </c>
       <c r="B298" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="C298" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D298" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E298" t="n">
         <v>6</v>
@@ -7887,13 +7953,13 @@
         <v>1297</v>
       </c>
       <c r="B299" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="C299" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D299" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E299" t="n">
         <v>6</v>
@@ -7907,13 +7973,13 @@
         <v>1298</v>
       </c>
       <c r="B300" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="C300" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D300" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E300" t="n">
         <v>6</v>
@@ -7927,13 +7993,13 @@
         <v>1299</v>
       </c>
       <c r="B301" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="C301" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D301" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E301" t="n">
         <v>6</v>
@@ -7947,13 +8013,13 @@
         <v>1300</v>
       </c>
       <c r="B302" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="C302" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D302" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E302" t="n">
         <v>6</v>
@@ -7967,13 +8033,13 @@
         <v>1301</v>
       </c>
       <c r="B303" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="C303" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D303" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E303" t="n">
         <v>6</v>
@@ -7987,13 +8053,13 @@
         <v>1302</v>
       </c>
       <c r="B304" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="C304" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D304" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E304" t="n">
         <v>6</v>
@@ -8007,13 +8073,13 @@
         <v>1303</v>
       </c>
       <c r="B305" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="C305" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D305" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E305" t="n">
         <v>6</v>
@@ -8027,13 +8093,13 @@
         <v>1304</v>
       </c>
       <c r="B306" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="C306" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D306" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E306" t="n">
         <v>6</v>
@@ -8047,13 +8113,13 @@
         <v>1305</v>
       </c>
       <c r="B307" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="C307" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D307" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E307" t="n">
         <v>6</v>
@@ -8067,13 +8133,13 @@
         <v>1306</v>
       </c>
       <c r="B308" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="C308" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D308" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E308" t="n">
         <v>6</v>
@@ -8087,13 +8153,13 @@
         <v>1307</v>
       </c>
       <c r="B309" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="C309" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D309" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E309" t="n">
         <v>6</v>
@@ -8107,13 +8173,13 @@
         <v>1308</v>
       </c>
       <c r="B310" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="C310" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D310" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E310" t="n">
         <v>6</v>
@@ -8127,13 +8193,13 @@
         <v>1309</v>
       </c>
       <c r="B311" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="C311" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D311" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E311" t="n">
         <v>6</v>
@@ -8147,13 +8213,13 @@
         <v>1310</v>
       </c>
       <c r="B312" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="C312" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D312" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E312" t="n">
         <v>6</v>
@@ -8167,13 +8233,13 @@
         <v>1311</v>
       </c>
       <c r="B313" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="C313" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D313" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E313" t="n">
         <v>6</v>
@@ -8187,13 +8253,13 @@
         <v>1312</v>
       </c>
       <c r="B314" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="C314" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D314" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E314" t="n">
         <v>6</v>
@@ -8207,13 +8273,13 @@
         <v>1313</v>
       </c>
       <c r="B315" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="C315" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D315" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E315" t="n">
         <v>6</v>
@@ -8227,13 +8293,13 @@
         <v>1314</v>
       </c>
       <c r="B316" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="C316" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D316" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E316" t="n">
         <v>6</v>
@@ -8247,13 +8313,13 @@
         <v>1315</v>
       </c>
       <c r="B317" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="C317" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D317" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E317" t="n">
         <v>6</v>
@@ -8267,13 +8333,13 @@
         <v>1316</v>
       </c>
       <c r="B318" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="C318" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D318" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E318" t="n">
         <v>6</v>
@@ -8287,13 +8353,13 @@
         <v>1317</v>
       </c>
       <c r="B319" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="C319" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D319" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E319" t="n">
         <v>6</v>
@@ -8307,13 +8373,13 @@
         <v>1318</v>
       </c>
       <c r="B320" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="C320" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D320" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E320" t="n">
         <v>6</v>
@@ -8327,13 +8393,13 @@
         <v>1319</v>
       </c>
       <c r="B321" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="C321" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D321" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E321" t="n">
         <v>6</v>
@@ -8347,13 +8413,13 @@
         <v>1320</v>
       </c>
       <c r="B322" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="C322" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D322" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E322" t="n">
         <v>6</v>
@@ -8367,13 +8433,13 @@
         <v>1321</v>
       </c>
       <c r="B323" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="C323" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D323" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E323" t="n">
         <v>6</v>
@@ -8387,13 +8453,13 @@
         <v>1322</v>
       </c>
       <c r="B324" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="C324" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D324" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E324" t="n">
         <v>6</v>
@@ -8407,13 +8473,13 @@
         <v>1323</v>
       </c>
       <c r="B325" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="C325" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D325" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E325" t="n">
         <v>6</v>
@@ -8427,13 +8493,13 @@
         <v>1324</v>
       </c>
       <c r="B326" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="C326" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D326" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E326" t="n">
         <v>6</v>
@@ -8447,13 +8513,13 @@
         <v>1325</v>
       </c>
       <c r="B327" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="C327" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D327" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E327" t="n">
         <v>6</v>
@@ -8467,13 +8533,13 @@
         <v>1326</v>
       </c>
       <c r="B328" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="C328" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D328" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E328" t="n">
         <v>6</v>
@@ -8487,13 +8553,13 @@
         <v>1327</v>
       </c>
       <c r="B329" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="C329" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D329" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E329" t="n">
         <v>6</v>
@@ -8507,13 +8573,13 @@
         <v>1328</v>
       </c>
       <c r="B330" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="C330" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D330" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E330" t="n">
         <v>6</v>
@@ -8527,13 +8593,13 @@
         <v>1329</v>
       </c>
       <c r="B331" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="C331" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D331" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E331" t="n">
         <v>6</v>
@@ -8547,13 +8613,13 @@
         <v>1330</v>
       </c>
       <c r="B332" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="C332" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D332" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E332" t="n">
         <v>6</v>
@@ -8567,13 +8633,13 @@
         <v>1331</v>
       </c>
       <c r="B333" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="C333" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D333" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E333" t="n">
         <v>6</v>
@@ -8587,13 +8653,13 @@
         <v>1332</v>
       </c>
       <c r="B334" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="C334" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D334" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E334" t="n">
         <v>6</v>
@@ -8607,13 +8673,13 @@
         <v>1333</v>
       </c>
       <c r="B335" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="C335" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D335" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E335" t="n">
         <v>6</v>
@@ -8627,13 +8693,13 @@
         <v>1334</v>
       </c>
       <c r="B336" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="C336" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D336" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E336" t="n">
         <v>6</v>
@@ -8647,13 +8713,13 @@
         <v>1335</v>
       </c>
       <c r="B337" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="C337" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D337" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E337" t="n">
         <v>6</v>
@@ -8667,13 +8733,13 @@
         <v>1336</v>
       </c>
       <c r="B338" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="C338" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D338" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E338" t="n">
         <v>6</v>
@@ -8687,13 +8753,13 @@
         <v>1337</v>
       </c>
       <c r="B339" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="C339" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D339" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E339" t="n">
         <v>6</v>
@@ -8707,13 +8773,13 @@
         <v>1338</v>
       </c>
       <c r="B340" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="C340" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D340" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E340" t="n">
         <v>6</v>
@@ -8727,13 +8793,13 @@
         <v>1339</v>
       </c>
       <c r="B341" t="s">
-        <v>347</v>
+        <v>357</v>
       </c>
       <c r="C341" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D341" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E341" t="n">
         <v>6</v>
@@ -8747,13 +8813,13 @@
         <v>1340</v>
       </c>
       <c r="B342" t="s">
-        <v>348</v>
+        <v>358</v>
       </c>
       <c r="C342" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D342" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E342" t="n">
         <v>6</v>
@@ -8767,13 +8833,13 @@
         <v>1341</v>
       </c>
       <c r="B343" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="C343" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D343" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E343" t="n">
         <v>6</v>
@@ -8787,13 +8853,13 @@
         <v>1342</v>
       </c>
       <c r="B344" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="C344" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D344" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E344" t="n">
         <v>6</v>
@@ -8807,13 +8873,13 @@
         <v>1343</v>
       </c>
       <c r="B345" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="C345" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D345" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E345" t="n">
         <v>6</v>
@@ -8827,13 +8893,13 @@
         <v>1344</v>
       </c>
       <c r="B346" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="C346" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D346" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E346" t="n">
         <v>6</v>
@@ -8847,13 +8913,13 @@
         <v>1345</v>
       </c>
       <c r="B347" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="C347" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D347" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E347" t="n">
         <v>6</v>
@@ -8867,13 +8933,13 @@
         <v>1346</v>
       </c>
       <c r="B348" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="C348" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D348" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E348" t="n">
         <v>6</v>
@@ -8887,13 +8953,13 @@
         <v>1347</v>
       </c>
       <c r="B349" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="C349" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D349" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E349" t="n">
         <v>6</v>
@@ -8907,13 +8973,13 @@
         <v>1348</v>
       </c>
       <c r="B350" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="C350" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D350" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E350" t="n">
         <v>6</v>
@@ -8927,13 +8993,13 @@
         <v>1349</v>
       </c>
       <c r="B351" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="C351" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D351" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E351" t="n">
         <v>6</v>
@@ -8947,13 +9013,13 @@
         <v>1350</v>
       </c>
       <c r="B352" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="C352" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D352" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E352" t="n">
         <v>6</v>
@@ -8967,13 +9033,13 @@
         <v>1351</v>
       </c>
       <c r="B353" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="C353" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D353" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E353" t="n">
         <v>6</v>
@@ -8987,13 +9053,13 @@
         <v>1352</v>
       </c>
       <c r="B354" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="C354" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D354" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E354" t="n">
         <v>6</v>
@@ -9007,13 +9073,13 @@
         <v>1353</v>
       </c>
       <c r="B355" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="C355" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D355" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E355" t="n">
         <v>6</v>
@@ -9027,13 +9093,13 @@
         <v>1354</v>
       </c>
       <c r="B356" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="C356" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D356" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E356" t="n">
         <v>6</v>
@@ -9047,13 +9113,13 @@
         <v>1355</v>
       </c>
       <c r="B357" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="C357" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D357" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E357" t="n">
         <v>6</v>
@@ -9067,13 +9133,13 @@
         <v>1356</v>
       </c>
       <c r="B358" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
       <c r="C358" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D358" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E358" t="n">
         <v>6</v>
@@ -9087,13 +9153,13 @@
         <v>1357</v>
       </c>
       <c r="B359" t="s">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="C359" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D359" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E359" t="n">
         <v>6</v>
@@ -9107,13 +9173,13 @@
         <v>1358</v>
       </c>
       <c r="B360" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="C360" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D360" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E360" t="n">
         <v>6</v>
@@ -9127,13 +9193,13 @@
         <v>1359</v>
       </c>
       <c r="B361" t="s">
-        <v>367</v>
+        <v>377</v>
       </c>
       <c r="C361" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D361" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E361" t="n">
         <v>6</v>
@@ -9147,13 +9213,13 @@
         <v>1360</v>
       </c>
       <c r="B362" t="s">
-        <v>368</v>
+        <v>378</v>
       </c>
       <c r="C362" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D362" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E362" t="n">
         <v>6</v>
@@ -9167,13 +9233,13 @@
         <v>1361</v>
       </c>
       <c r="B363" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="C363" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D363" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E363" t="n">
         <v>6</v>
@@ -9187,13 +9253,13 @@
         <v>1362</v>
       </c>
       <c r="B364" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="C364" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D364" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E364" t="n">
         <v>6</v>
@@ -9207,13 +9273,13 @@
         <v>1363</v>
       </c>
       <c r="B365" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="C365" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D365" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E365" t="n">
         <v>6</v>
@@ -9227,13 +9293,13 @@
         <v>1364</v>
       </c>
       <c r="B366" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="C366" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D366" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E366" t="n">
         <v>6</v>
@@ -9247,13 +9313,13 @@
         <v>1365</v>
       </c>
       <c r="B367" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="C367" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D367" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E367" t="n">
         <v>6</v>
@@ -9267,13 +9333,13 @@
         <v>1366</v>
       </c>
       <c r="B368" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="C368" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D368" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E368" t="n">
         <v>6</v>
@@ -9287,13 +9353,13 @@
         <v>1367</v>
       </c>
       <c r="B369" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="C369" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D369" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E369" t="n">
         <v>6</v>
@@ -9307,13 +9373,13 @@
         <v>1368</v>
       </c>
       <c r="B370" t="s">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="C370" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D370" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E370" t="n">
         <v>6</v>
@@ -9327,13 +9393,13 @@
         <v>1369</v>
       </c>
       <c r="B371" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="C371" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D371" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E371" t="n">
         <v>6</v>
@@ -9347,13 +9413,13 @@
         <v>1370</v>
       </c>
       <c r="B372" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="C372" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D372" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E372" t="n">
         <v>6</v>
@@ -9367,13 +9433,13 @@
         <v>1371</v>
       </c>
       <c r="B373" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="C373" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D373" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E373" t="n">
         <v>6</v>
@@ -9387,13 +9453,13 @@
         <v>1372</v>
       </c>
       <c r="B374" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="C374" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D374" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E374" t="n">
         <v>6</v>
@@ -9407,13 +9473,13 @@
         <v>1373</v>
       </c>
       <c r="B375" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="C375" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D375" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E375" t="n">
         <v>6</v>
@@ -9427,13 +9493,13 @@
         <v>1374</v>
       </c>
       <c r="B376" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="C376" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D376" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E376" t="n">
         <v>6</v>
@@ -9447,13 +9513,13 @@
         <v>1375</v>
       </c>
       <c r="B377" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="C377" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D377" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E377" t="n">
         <v>6</v>
@@ -9467,13 +9533,13 @@
         <v>1376</v>
       </c>
       <c r="B378" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="C378" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D378" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E378" t="n">
         <v>6</v>
@@ -9487,13 +9553,13 @@
         <v>1377</v>
       </c>
       <c r="B379" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="C379" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D379" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E379" t="n">
         <v>6</v>
@@ -9507,13 +9573,13 @@
         <v>1378</v>
       </c>
       <c r="B380" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="C380" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D380" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E380" t="n">
         <v>6</v>
@@ -9527,13 +9593,13 @@
         <v>1379</v>
       </c>
       <c r="B381" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="C381" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D381" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E381" t="n">
         <v>6</v>
@@ -9547,13 +9613,13 @@
         <v>1380</v>
       </c>
       <c r="B382" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="C382" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D382" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E382" t="n">
         <v>6</v>
@@ -9567,13 +9633,13 @@
         <v>1381</v>
       </c>
       <c r="B383" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="C383" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D383" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E383" t="n">
         <v>6</v>
@@ -9587,13 +9653,13 @@
         <v>1382</v>
       </c>
       <c r="B384" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="C384" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D384" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E384" t="n">
         <v>6</v>
@@ -9607,13 +9673,13 @@
         <v>1383</v>
       </c>
       <c r="B385" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="C385" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D385" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E385" t="n">
         <v>6</v>
@@ -9627,13 +9693,13 @@
         <v>1384</v>
       </c>
       <c r="B386" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="C386" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D386" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E386" t="n">
         <v>6</v>
@@ -9647,13 +9713,13 @@
         <v>1385</v>
       </c>
       <c r="B387" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
       <c r="C387" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D387" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E387" t="n">
         <v>6</v>
@@ -9667,13 +9733,13 @@
         <v>1386</v>
       </c>
       <c r="B388" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="C388" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D388" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E388" t="n">
         <v>6</v>
@@ -9687,13 +9753,13 @@
         <v>1387</v>
       </c>
       <c r="B389" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="C389" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D389" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E389" t="n">
         <v>6</v>
@@ -9707,13 +9773,13 @@
         <v>1388</v>
       </c>
       <c r="B390" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="C390" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D390" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E390" t="n">
         <v>6</v>
@@ -9727,13 +9793,13 @@
         <v>1389</v>
       </c>
       <c r="B391" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="C391" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D391" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E391" t="n">
         <v>6</v>
@@ -9747,13 +9813,13 @@
         <v>1390</v>
       </c>
       <c r="B392" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="C392" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D392" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E392" t="n">
         <v>6</v>
@@ -9767,13 +9833,13 @@
         <v>1391</v>
       </c>
       <c r="B393" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="C393" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D393" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E393" t="n">
         <v>6</v>
@@ -9787,13 +9853,13 @@
         <v>1392</v>
       </c>
       <c r="B394" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="C394" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D394" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E394" t="n">
         <v>6</v>
@@ -9807,13 +9873,13 @@
         <v>1393</v>
       </c>
       <c r="B395" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="C395" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D395" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E395" t="n">
         <v>6</v>
@@ -9827,13 +9893,13 @@
         <v>1394</v>
       </c>
       <c r="B396" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="C396" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D396" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E396" t="n">
         <v>6</v>
@@ -9847,13 +9913,13 @@
         <v>1395</v>
       </c>
       <c r="B397" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="C397" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D397" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E397" t="n">
         <v>6</v>
@@ -9867,13 +9933,13 @@
         <v>1396</v>
       </c>
       <c r="B398" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="C398" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D398" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E398" t="n">
         <v>6</v>
@@ -9887,13 +9953,13 @@
         <v>1397</v>
       </c>
       <c r="B399" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="C399" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D399" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E399" t="n">
         <v>6</v>
@@ -9907,13 +9973,13 @@
         <v>1398</v>
       </c>
       <c r="B400" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="C400" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D400" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E400" t="n">
         <v>6</v>
@@ -9927,13 +9993,13 @@
         <v>1399</v>
       </c>
       <c r="B401" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="C401" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D401" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E401" t="n">
         <v>6</v>
@@ -9947,13 +10013,13 @@
         <v>1400</v>
       </c>
       <c r="B402" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="C402" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D402" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E402" t="n">
         <v>6</v>
@@ -9967,13 +10033,13 @@
         <v>1401</v>
       </c>
       <c r="B403" t="s">
-        <v>409</v>
+        <v>419</v>
       </c>
       <c r="C403" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D403" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E403" t="n">
         <v>6</v>
@@ -9987,13 +10053,13 @@
         <v>1402</v>
       </c>
       <c r="B404" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="C404" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D404" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E404" t="n">
         <v>6</v>
@@ -10007,13 +10073,13 @@
         <v>1403</v>
       </c>
       <c r="B405" t="s">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="C405" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D405" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E405" t="n">
         <v>6</v>
@@ -10027,13 +10093,13 @@
         <v>1404</v>
       </c>
       <c r="B406" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="C406" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D406" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E406" t="n">
         <v>6</v>
@@ -10047,13 +10113,13 @@
         <v>1405</v>
       </c>
       <c r="B407" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="C407" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D407" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E407" t="n">
         <v>6</v>
@@ -10067,13 +10133,13 @@
         <v>1406</v>
       </c>
       <c r="B408" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="C408" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D408" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E408" t="n">
         <v>6</v>
@@ -10087,13 +10153,13 @@
         <v>1407</v>
       </c>
       <c r="B409" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="C409" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D409" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E409" t="n">
         <v>6</v>
@@ -10107,13 +10173,13 @@
         <v>1408</v>
       </c>
       <c r="B410" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="C410" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D410" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E410" t="n">
         <v>6</v>
@@ -10127,13 +10193,13 @@
         <v>1409</v>
       </c>
       <c r="B411" t="s">
-        <v>417</v>
+        <v>427</v>
       </c>
       <c r="C411" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D411" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E411" t="n">
         <v>6</v>
@@ -10147,13 +10213,13 @@
         <v>1410</v>
       </c>
       <c r="B412" t="s">
-        <v>418</v>
+        <v>428</v>
       </c>
       <c r="C412" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D412" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E412" t="n">
         <v>6</v>
@@ -10167,13 +10233,13 @@
         <v>1411</v>
       </c>
       <c r="B413" t="s">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="C413" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D413" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E413" t="n">
         <v>6</v>
@@ -10187,13 +10253,13 @@
         <v>1412</v>
       </c>
       <c r="B414" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="C414" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D414" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E414" t="n">
         <v>6</v>
@@ -10207,13 +10273,13 @@
         <v>1413</v>
       </c>
       <c r="B415" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="C415" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D415" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E415" t="n">
         <v>6</v>
@@ -10227,13 +10293,13 @@
         <v>1414</v>
       </c>
       <c r="B416" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="C416" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D416" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E416" t="n">
         <v>6</v>
@@ -10247,13 +10313,13 @@
         <v>1415</v>
       </c>
       <c r="B417" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="C417" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D417" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E417" t="n">
         <v>6</v>
@@ -10267,13 +10333,13 @@
         <v>1416</v>
       </c>
       <c r="B418" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="C418" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D418" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E418" t="n">
         <v>6</v>
@@ -10287,13 +10353,13 @@
         <v>1417</v>
       </c>
       <c r="B419" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="C419" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D419" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E419" t="n">
         <v>6</v>
@@ -10307,13 +10373,13 @@
         <v>1418</v>
       </c>
       <c r="B420" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="C420" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D420" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E420" t="n">
         <v>6</v>
@@ -10327,13 +10393,13 @@
         <v>1419</v>
       </c>
       <c r="B421" t="s">
-        <v>427</v>
+        <v>437</v>
       </c>
       <c r="C421" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D421" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E421" t="n">
         <v>6</v>
@@ -10347,13 +10413,13 @@
         <v>1420</v>
       </c>
       <c r="B422" t="s">
-        <v>428</v>
+        <v>438</v>
       </c>
       <c r="C422" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D422" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E422" t="n">
         <v>6</v>
@@ -10367,13 +10433,13 @@
         <v>1421</v>
       </c>
       <c r="B423" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="C423" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D423" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E423" t="n">
         <v>6</v>
@@ -10387,13 +10453,13 @@
         <v>1422</v>
       </c>
       <c r="B424" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="C424" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D424" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E424" t="n">
         <v>6</v>
@@ -10407,13 +10473,13 @@
         <v>1423</v>
       </c>
       <c r="B425" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="C425" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D425" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E425" t="n">
         <v>6</v>
@@ -10427,13 +10493,13 @@
         <v>1424</v>
       </c>
       <c r="B426" t="s">
-        <v>432</v>
+        <v>442</v>
       </c>
       <c r="C426" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D426" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E426" t="n">
         <v>6</v>
@@ -10447,13 +10513,13 @@
         <v>1425</v>
       </c>
       <c r="B427" t="s">
-        <v>433</v>
+        <v>443</v>
       </c>
       <c r="C427" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D427" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E427" t="n">
         <v>6</v>
@@ -10467,13 +10533,13 @@
         <v>1426</v>
       </c>
       <c r="B428" t="s">
-        <v>434</v>
+        <v>444</v>
       </c>
       <c r="C428" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D428" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E428" t="n">
         <v>6</v>
@@ -10487,13 +10553,13 @@
         <v>1427</v>
       </c>
       <c r="B429" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
       <c r="C429" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D429" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E429" t="n">
         <v>6</v>
@@ -10507,13 +10573,13 @@
         <v>1428</v>
       </c>
       <c r="B430" t="s">
-        <v>436</v>
+        <v>446</v>
       </c>
       <c r="C430" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D430" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E430" t="n">
         <v>6</v>
@@ -10527,13 +10593,13 @@
         <v>1429</v>
       </c>
       <c r="B431" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="C431" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D431" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E431" t="n">
         <v>6</v>
@@ -10547,13 +10613,13 @@
         <v>1430</v>
       </c>
       <c r="B432" t="s">
-        <v>438</v>
+        <v>448</v>
       </c>
       <c r="C432" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D432" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E432" t="n">
         <v>6</v>
@@ -10567,13 +10633,13 @@
         <v>1431</v>
       </c>
       <c r="B433" t="s">
-        <v>439</v>
+        <v>449</v>
       </c>
       <c r="C433" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D433" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E433" t="n">
         <v>6</v>
@@ -10587,13 +10653,13 @@
         <v>1432</v>
       </c>
       <c r="B434" t="s">
-        <v>440</v>
+        <v>450</v>
       </c>
       <c r="C434" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D434" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E434" t="n">
         <v>6</v>
@@ -10607,13 +10673,13 @@
         <v>1433</v>
       </c>
       <c r="B435" t="s">
-        <v>441</v>
+        <v>451</v>
       </c>
       <c r="C435" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D435" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E435" t="n">
         <v>6</v>
@@ -10627,13 +10693,13 @@
         <v>1434</v>
       </c>
       <c r="B436" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
       <c r="C436" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D436" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E436" t="n">
         <v>6</v>
@@ -10647,13 +10713,13 @@
         <v>1435</v>
       </c>
       <c r="B437" t="s">
-        <v>443</v>
+        <v>453</v>
       </c>
       <c r="C437" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D437" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E437" t="n">
         <v>6</v>
@@ -10667,13 +10733,13 @@
         <v>1436</v>
       </c>
       <c r="B438" t="s">
-        <v>444</v>
+        <v>454</v>
       </c>
       <c r="C438" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D438" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E438" t="n">
         <v>6</v>
@@ -10687,13 +10753,13 @@
         <v>1437</v>
       </c>
       <c r="B439" t="s">
-        <v>445</v>
+        <v>455</v>
       </c>
       <c r="C439" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D439" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E439" t="n">
         <v>6</v>
@@ -10707,13 +10773,13 @@
         <v>1438</v>
       </c>
       <c r="B440" t="s">
-        <v>446</v>
+        <v>456</v>
       </c>
       <c r="C440" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D440" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E440" t="n">
         <v>6</v>
@@ -10727,13 +10793,13 @@
         <v>1439</v>
       </c>
       <c r="B441" t="s">
-        <v>447</v>
+        <v>457</v>
       </c>
       <c r="C441" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D441" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E441" t="n">
         <v>6</v>
@@ -10747,13 +10813,13 @@
         <v>1440</v>
       </c>
       <c r="B442" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="C442" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D442" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E442" t="n">
         <v>6</v>
@@ -10767,13 +10833,13 @@
         <v>1441</v>
       </c>
       <c r="B443" t="s">
-        <v>449</v>
+        <v>459</v>
       </c>
       <c r="C443" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D443" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E443" t="n">
         <v>6</v>
@@ -10787,13 +10853,13 @@
         <v>1442</v>
       </c>
       <c r="B444" t="s">
-        <v>450</v>
+        <v>460</v>
       </c>
       <c r="C444" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D444" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E444" t="n">
         <v>6</v>
@@ -10807,13 +10873,13 @@
         <v>1443</v>
       </c>
       <c r="B445" t="s">
-        <v>451</v>
+        <v>461</v>
       </c>
       <c r="C445" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D445" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E445" t="n">
         <v>6</v>
@@ -10827,13 +10893,13 @@
         <v>1444</v>
       </c>
       <c r="B446" t="s">
-        <v>452</v>
+        <v>462</v>
       </c>
       <c r="C446" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D446" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E446" t="n">
         <v>6</v>
@@ -10847,13 +10913,13 @@
         <v>1445</v>
       </c>
       <c r="B447" t="s">
-        <v>453</v>
+        <v>463</v>
       </c>
       <c r="C447" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D447" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E447" t="n">
         <v>6</v>
@@ -10867,13 +10933,13 @@
         <v>1446</v>
       </c>
       <c r="B448" t="s">
-        <v>454</v>
+        <v>464</v>
       </c>
       <c r="C448" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D448" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E448" t="n">
         <v>6</v>
@@ -10887,13 +10953,13 @@
         <v>1447</v>
       </c>
       <c r="B449" t="s">
-        <v>455</v>
+        <v>465</v>
       </c>
       <c r="C449" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D449" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E449" t="n">
         <v>6</v>
@@ -10907,13 +10973,13 @@
         <v>1448</v>
       </c>
       <c r="B450" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="C450" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D450" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E450" t="n">
         <v>6</v>
@@ -10927,13 +10993,13 @@
         <v>1449</v>
       </c>
       <c r="B451" t="s">
-        <v>457</v>
+        <v>467</v>
       </c>
       <c r="C451" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D451" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E451" t="n">
         <v>6</v>
@@ -10947,13 +11013,13 @@
         <v>1450</v>
       </c>
       <c r="B452" t="s">
-        <v>458</v>
+        <v>468</v>
       </c>
       <c r="C452" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D452" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E452" t="n">
         <v>6</v>
@@ -10967,13 +11033,13 @@
         <v>1451</v>
       </c>
       <c r="B453" t="s">
-        <v>459</v>
+        <v>469</v>
       </c>
       <c r="C453" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D453" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E453" t="n">
         <v>6</v>
@@ -10987,13 +11053,13 @@
         <v>1452</v>
       </c>
       <c r="B454" t="s">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="C454" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D454" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E454" t="n">
         <v>6</v>
@@ -11007,13 +11073,13 @@
         <v>1453</v>
       </c>
       <c r="B455" t="s">
-        <v>461</v>
+        <v>471</v>
       </c>
       <c r="C455" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D455" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E455" t="n">
         <v>6</v>
@@ -11027,13 +11093,13 @@
         <v>1454</v>
       </c>
       <c r="B456" t="s">
-        <v>462</v>
+        <v>472</v>
       </c>
       <c r="C456" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D456" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E456" t="n">
         <v>6</v>
@@ -11047,13 +11113,13 @@
         <v>1455</v>
       </c>
       <c r="B457" t="s">
-        <v>463</v>
+        <v>473</v>
       </c>
       <c r="C457" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D457" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E457" t="n">
         <v>6</v>
@@ -11067,13 +11133,13 @@
         <v>1456</v>
       </c>
       <c r="B458" t="s">
-        <v>464</v>
+        <v>474</v>
       </c>
       <c r="C458" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D458" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E458" t="n">
         <v>6</v>
@@ -11087,13 +11153,13 @@
         <v>1457</v>
       </c>
       <c r="B459" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
       <c r="C459" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D459" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E459" t="n">
         <v>6</v>
@@ -11107,13 +11173,13 @@
         <v>1458</v>
       </c>
       <c r="B460" t="s">
-        <v>466</v>
+        <v>476</v>
       </c>
       <c r="C460" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D460" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E460" t="n">
         <v>6</v>
@@ -11127,13 +11193,13 @@
         <v>1459</v>
       </c>
       <c r="B461" t="s">
-        <v>467</v>
+        <v>477</v>
       </c>
       <c r="C461" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D461" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E461" t="n">
         <v>6</v>
@@ -11147,13 +11213,13 @@
         <v>1460</v>
       </c>
       <c r="B462" t="s">
-        <v>468</v>
+        <v>478</v>
       </c>
       <c r="C462" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D462" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E462" t="n">
         <v>6</v>
@@ -11167,13 +11233,13 @@
         <v>1461</v>
       </c>
       <c r="B463" t="s">
-        <v>469</v>
+        <v>479</v>
       </c>
       <c r="C463" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D463" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E463" t="n">
         <v>6</v>
@@ -11187,13 +11253,13 @@
         <v>1462</v>
       </c>
       <c r="B464" t="s">
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="C464" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D464" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E464" t="n">
         <v>6</v>
@@ -11207,13 +11273,13 @@
         <v>1463</v>
       </c>
       <c r="B465" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="C465" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D465" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E465" t="n">
         <v>6</v>
@@ -11227,13 +11293,13 @@
         <v>1464</v>
       </c>
       <c r="B466" t="s">
-        <v>472</v>
+        <v>482</v>
       </c>
       <c r="C466" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D466" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E466" t="n">
         <v>6</v>
@@ -11247,13 +11313,13 @@
         <v>1465</v>
       </c>
       <c r="B467" t="s">
-        <v>473</v>
+        <v>483</v>
       </c>
       <c r="C467" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D467" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E467" t="n">
         <v>6</v>
@@ -11267,13 +11333,13 @@
         <v>1466</v>
       </c>
       <c r="B468" t="s">
-        <v>474</v>
+        <v>484</v>
       </c>
       <c r="C468" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D468" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E468" t="n">
         <v>6</v>
@@ -11287,13 +11353,13 @@
         <v>1467</v>
       </c>
       <c r="B469" t="s">
-        <v>475</v>
+        <v>485</v>
       </c>
       <c r="C469" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D469" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E469" t="n">
         <v>6</v>
@@ -11307,13 +11373,13 @@
         <v>1468</v>
       </c>
       <c r="B470" t="s">
-        <v>476</v>
+        <v>486</v>
       </c>
       <c r="C470" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D470" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E470" t="n">
         <v>6</v>
@@ -11327,13 +11393,13 @@
         <v>1469</v>
       </c>
       <c r="B471" t="s">
-        <v>477</v>
+        <v>487</v>
       </c>
       <c r="C471" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D471" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E471" t="n">
         <v>6</v>
@@ -11347,13 +11413,13 @@
         <v>1470</v>
       </c>
       <c r="B472" t="s">
-        <v>478</v>
+        <v>488</v>
       </c>
       <c r="C472" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D472" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E472" t="n">
         <v>6</v>
@@ -11367,13 +11433,13 @@
         <v>1471</v>
       </c>
       <c r="B473" t="s">
-        <v>479</v>
+        <v>489</v>
       </c>
       <c r="C473" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D473" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E473" t="n">
         <v>6</v>
@@ -11387,13 +11453,13 @@
         <v>1472</v>
       </c>
       <c r="B474" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
       <c r="C474" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D474" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E474" t="n">
         <v>6</v>
@@ -11407,13 +11473,13 @@
         <v>1473</v>
       </c>
       <c r="B475" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
       <c r="C475" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D475" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E475" t="n">
         <v>6</v>
@@ -11427,13 +11493,13 @@
         <v>1474</v>
       </c>
       <c r="B476" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
       <c r="C476" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D476" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E476" t="n">
         <v>6</v>
@@ -11447,13 +11513,13 @@
         <v>1475</v>
       </c>
       <c r="B477" t="s">
-        <v>483</v>
+        <v>493</v>
       </c>
       <c r="C477" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D477" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E477" t="n">
         <v>6</v>
@@ -11467,13 +11533,13 @@
         <v>1476</v>
       </c>
       <c r="B478" t="s">
-        <v>484</v>
+        <v>494</v>
       </c>
       <c r="C478" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D478" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E478" t="n">
         <v>6</v>
@@ -11487,13 +11553,13 @@
         <v>1477</v>
       </c>
       <c r="B479" t="s">
-        <v>485</v>
+        <v>495</v>
       </c>
       <c r="C479" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D479" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E479" t="n">
         <v>6</v>
@@ -11507,13 +11573,13 @@
         <v>1478</v>
       </c>
       <c r="B480" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
       <c r="C480" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D480" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E480" t="n">
         <v>6</v>
@@ -11527,13 +11593,13 @@
         <v>1479</v>
       </c>
       <c r="B481" t="s">
-        <v>487</v>
+        <v>497</v>
       </c>
       <c r="C481" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D481" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E481" t="n">
         <v>6</v>
@@ -11547,13 +11613,13 @@
         <v>1480</v>
       </c>
       <c r="B482" t="s">
-        <v>488</v>
+        <v>498</v>
       </c>
       <c r="C482" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D482" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E482" t="n">
         <v>6</v>
@@ -11567,13 +11633,13 @@
         <v>1481</v>
       </c>
       <c r="B483" t="s">
-        <v>489</v>
+        <v>499</v>
       </c>
       <c r="C483" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D483" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E483" t="n">
         <v>6</v>
@@ -11587,13 +11653,13 @@
         <v>1482</v>
       </c>
       <c r="B484" t="s">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="C484" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D484" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E484" t="n">
         <v>6</v>
@@ -11607,13 +11673,13 @@
         <v>1483</v>
       </c>
       <c r="B485" t="s">
-        <v>491</v>
+        <v>501</v>
       </c>
       <c r="C485" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D485" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E485" t="n">
         <v>6</v>
@@ -11627,13 +11693,13 @@
         <v>1484</v>
       </c>
       <c r="B486" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
       <c r="C486" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D486" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E486" t="n">
         <v>6</v>
@@ -11647,13 +11713,13 @@
         <v>1485</v>
       </c>
       <c r="B487" t="s">
-        <v>493</v>
+        <v>503</v>
       </c>
       <c r="C487" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D487" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E487" t="n">
         <v>6</v>
@@ -11667,13 +11733,13 @@
         <v>1486</v>
       </c>
       <c r="B488" t="s">
-        <v>494</v>
+        <v>504</v>
       </c>
       <c r="C488" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D488" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E488" t="n">
         <v>6</v>
@@ -11687,13 +11753,13 @@
         <v>1487</v>
       </c>
       <c r="B489" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="C489" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D489" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E489" t="n">
         <v>6</v>
@@ -11707,13 +11773,13 @@
         <v>1488</v>
       </c>
       <c r="B490" t="s">
-        <v>496</v>
+        <v>506</v>
       </c>
       <c r="C490" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D490" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E490" t="n">
         <v>6</v>
@@ -11727,13 +11793,13 @@
         <v>1489</v>
       </c>
       <c r="B491" t="s">
-        <v>497</v>
+        <v>507</v>
       </c>
       <c r="C491" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D491" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E491" t="n">
         <v>6</v>
@@ -11747,13 +11813,13 @@
         <v>1490</v>
       </c>
       <c r="B492" t="s">
-        <v>498</v>
+        <v>508</v>
       </c>
       <c r="C492" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D492" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E492" t="n">
         <v>6</v>
@@ -11767,13 +11833,13 @@
         <v>1491</v>
       </c>
       <c r="B493" t="s">
-        <v>499</v>
+        <v>509</v>
       </c>
       <c r="C493" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D493" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E493" t="n">
         <v>6</v>
@@ -11787,13 +11853,13 @@
         <v>1492</v>
       </c>
       <c r="B494" t="s">
-        <v>500</v>
+        <v>510</v>
       </c>
       <c r="C494" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D494" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E494" t="n">
         <v>6</v>
@@ -11807,13 +11873,13 @@
         <v>1493</v>
       </c>
       <c r="B495" t="s">
-        <v>501</v>
+        <v>511</v>
       </c>
       <c r="C495" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D495" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E495" t="n">
         <v>6</v>
@@ -11827,13 +11893,13 @@
         <v>1494</v>
       </c>
       <c r="B496" t="s">
-        <v>502</v>
+        <v>512</v>
       </c>
       <c r="C496" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D496" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E496" t="n">
         <v>6</v>
@@ -11847,13 +11913,13 @@
         <v>1495</v>
       </c>
       <c r="B497" t="s">
-        <v>503</v>
+        <v>513</v>
       </c>
       <c r="C497" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D497" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E497" t="n">
         <v>6</v>
@@ -11867,13 +11933,13 @@
         <v>1496</v>
       </c>
       <c r="B498" t="s">
-        <v>504</v>
+        <v>514</v>
       </c>
       <c r="C498" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D498" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E498" t="n">
         <v>6</v>
@@ -11887,13 +11953,13 @@
         <v>1497</v>
       </c>
       <c r="B499" t="s">
-        <v>505</v>
+        <v>515</v>
       </c>
       <c r="C499" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D499" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E499" t="n">
         <v>6</v>
@@ -11907,13 +11973,13 @@
         <v>1498</v>
       </c>
       <c r="B500" t="s">
-        <v>506</v>
+        <v>516</v>
       </c>
       <c r="C500" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D500" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E500" t="n">
         <v>6</v>
@@ -11927,13 +11993,13 @@
         <v>1499</v>
       </c>
       <c r="B501" t="s">
-        <v>507</v>
+        <v>517</v>
       </c>
       <c r="C501" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D501" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E501" t="n">
         <v>6</v>
